--- a/Documents/Cord/Cord Documents 5 - S7,S8,S9/FM-CS-17 CONFIRMATION CONDITION CHECK SHEET S-8 -2.xlsx
+++ b/Documents/Cord/Cord Documents 5 - S7,S8,S9/FM-CS-17 CONFIRMATION CONDITION CHECK SHEET S-8 -2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/03 IATF/Condition Standard/Dipping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{52F2C1F9-B2B6-4519-B11C-1C0BD5D9C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E08319-470B-4DF5-86FA-A914C98CDC37}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="P1671TT S-8-2" sheetId="15" r:id="rId1"/>
@@ -36,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">P1402TRH!$A$1:$K$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0" xml:space="preserve"> 'P1671TT S-8-2'!$A$1:$K$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="232">
   <si>
     <t>เครื่อง M/C</t>
   </si>
@@ -927,21 +921,24 @@
   <si>
     <t>FM-CS-17-01  Effective date  :25/8/2023        Approved by : CS</t>
   </si>
+  <si>
+    <t>DIPCondition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="189" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2027,17 +2024,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -2098,28 +2094,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2128,34 +2124,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2194,34 +2190,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2230,16 +2226,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2260,29 +2256,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="15" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2325,7 +2321,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2370,7 +2366,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2388,10 +2384,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2448,22 +2444,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="38" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="38" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="55" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2481,19 +2477,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="22" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2508,7 +2504,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2520,13 +2516,13 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2586,6 +2582,57 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2676,81 +2723,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2758,19 +2754,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 8" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 9" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="ปกติ_14 ASSY WI line 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+  <cellStyles count="11">
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 7" xfId="8"/>
+    <cellStyle name="Normal 8" xfId="9"/>
+    <cellStyle name="Normal 9" xfId="10"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2805,7 +2800,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2908,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2960,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3016,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271E4D50-C538-4345-B290-90A08C51E7F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271E4D50-C538-4345-B290-90A08C51E7F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3068,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D5EF94-8A97-4A79-8B26-FF9914136171}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9D5EF94-8A97-4A79-8B26-FF9914136171}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3124,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3176,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3227,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED536E8-E056-1BCE-DA97-70E1A5EB519B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ED536E8-E056-1BCE-DA97-70E1A5EB519B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3288,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735FF525-B70D-4047-BB8E-3736DD011A31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{735FF525-B70D-4047-BB8E-3736DD011A31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3354,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3406,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +3462,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3519,7 +3514,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,7 +3622,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3678,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3730,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,7 +3786,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3843,7 +3838,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3894,7 @@
         <xdr:cNvPr id="2" name="Picture 25" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D66D20-3D9C-460C-8904-4B82AEE3D572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90D66D20-3D9C-460C-8904-4B82AEE3D572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3951,7 +3946,7 @@
         <xdr:cNvPr id="3" name="Picture 27" descr="logo.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB599973-A684-47BE-89E1-FC2CCDF7C10C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB599973-A684-47BE-89E1-FC2CCDF7C10C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +3983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4030,7 +4025,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4062,27 +4057,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4114,24 +4091,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4307,7 +4266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -4320,56 +4279,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="28" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="233" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="7"/>
@@ -4385,7 +4344,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="217"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -4403,13 +4362,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -4421,11 +4380,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -4436,54 +4395,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -4497,8 +4456,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -4519,8 +4478,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -4537,8 +4496,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -4555,8 +4514,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -4573,8 +4532,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -4591,8 +4550,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -4609,8 +4568,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -4629,8 +4588,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -4647,8 +4606,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -4665,8 +4624,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -4689,8 +4648,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -4711,8 +4670,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -4731,8 +4690,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -4749,8 +4708,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -4771,8 +4730,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -4791,8 +4750,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -4811,8 +4770,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -4831,8 +4790,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -4854,15 +4813,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="62.25" customHeight="1" thickTop="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -4873,8 +4832,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -4893,8 +4852,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -4911,8 +4870,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -4931,8 +4890,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -4951,8 +4910,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -4969,14 +4928,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>117</v>
@@ -4987,8 +4946,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>214</v>
       </c>
@@ -5007,8 +4966,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="43"/>
       <c r="C36" s="35" t="s">
         <v>217</v>
@@ -5025,8 +4984,8 @@
       </c>
       <c r="J36" s="107"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -5045,8 +5004,8 @@
       </c>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1">
-      <c r="A38" s="221"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A38" s="196"/>
       <c r="B38" s="51"/>
       <c r="C38" s="88" t="s">
         <v>218</v>
@@ -5063,14 +5022,14 @@
       </c>
       <c r="J38" s="114"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A39" s="222"/>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A39" s="197"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="229" t="s">
+      <c r="C39" s="204" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="230"/>
-      <c r="E39" s="231"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="206"/>
       <c r="F39" s="111"/>
       <c r="G39" s="154" t="s">
         <v>17</v>
@@ -5081,7 +5040,7 @@
       </c>
       <c r="J39" s="112"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A40" s="58" t="s">
         <v>23</v>
       </c>
@@ -5103,7 +5062,7 @@
       </c>
       <c r="J40" s="107"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -5121,7 +5080,7 @@
       </c>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="51"/>
       <c r="C42" s="24" t="s">
@@ -5139,7 +5098,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A43" s="58"/>
       <c r="B43" s="62"/>
       <c r="C43" s="63" t="s">
@@ -5157,7 +5116,7 @@
       </c>
       <c r="J43" s="115"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A44" s="64"/>
       <c r="B44" s="46"/>
       <c r="C44" s="65" t="s">
@@ -5175,7 +5134,7 @@
       </c>
       <c r="J44" s="117"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A45" s="69"/>
       <c r="B45" s="29" t="s">
         <v>90</v>
@@ -5195,7 +5154,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -5213,7 +5172,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="61" t="s">
@@ -5231,7 +5190,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="25" t="s">
@@ -5249,7 +5208,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -5267,7 +5226,7 @@
       </c>
       <c r="J49" s="119"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="29"/>
       <c r="C50" s="71" t="s">
@@ -5285,7 +5244,7 @@
       </c>
       <c r="J50" s="126"/>
     </row>
-    <row r="51" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="123" t="s">
         <v>88</v>
@@ -5305,7 +5264,7 @@
       </c>
       <c r="J51" s="140"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A52" s="120"/>
       <c r="B52" s="72"/>
       <c r="C52" s="127"/>
@@ -5317,7 +5276,7 @@
       <c r="I52" s="131"/>
       <c r="J52" s="133"/>
     </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="73" t="s">
         <v>230</v>
       </c>
@@ -5326,30 +5285,30 @@
       <c r="D53" s="73"/>
       <c r="E53" s="121"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="232" t="s">
+      <c r="G53" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="232" t="s">
+      <c r="H53" s="191"/>
+      <c r="I53" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="233"/>
-    </row>
-    <row r="54" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J53" s="191"/>
+    </row>
+    <row r="54" spans="1:10" ht="30.6" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
       <c r="D54" s="75"/>
       <c r="E54" s="122"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="234" t="s">
+      <c r="G54" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="235"/>
-      <c r="I54" s="234" t="s">
+      <c r="H54" s="193"/>
+      <c r="I54" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="235"/>
+      <c r="J54" s="193"/>
     </row>
     <row r="55" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A55" s="75"/>
@@ -5368,23 +5327,13 @@
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="236" t="s">
+      <c r="I56" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J56" s="236"/>
+      <c r="J56" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="H7:H8"/>
@@ -5396,6 +5345,16 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A39"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I56:J56"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5405,65 +5364,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:13" ht="41.25" customHeight="1">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="J1" s="221"/>
+    </row>
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" customHeight="1">
+      <c r="J2" s="226"/>
+      <c r="M2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
@@ -5481,7 +5443,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="246"/>
       <c r="C4" s="11"/>
@@ -5497,17 +5459,17 @@
       <c r="I4" s="10"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -5515,15 +5477,15 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -5533,55 +5495,55 @@
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+    <row r="8" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
-    </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="J8" s="218"/>
+    </row>
+    <row r="9" spans="1:13" ht="36" customHeight="1" thickBot="1">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -5595,8 +5557,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -5617,8 +5579,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -5635,8 +5597,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -5653,8 +5615,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -5671,8 +5633,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -5689,8 +5651,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -5707,8 +5669,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:13" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -5727,8 +5689,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -5745,8 +5707,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -5763,8 +5725,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -5787,8 +5749,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -5809,8 +5771,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -5829,8 +5791,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -5847,8 +5809,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -5869,8 +5831,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -5889,8 +5851,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -5909,8 +5871,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -5929,8 +5891,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -5952,15 +5914,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="63" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -5971,8 +5933,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -5991,8 +5953,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -6009,8 +5971,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -6029,8 +5991,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -6049,8 +6011,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -6067,14 +6029,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>17</v>
@@ -6085,8 +6047,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -6105,8 +6067,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -6125,8 +6087,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -6143,14 +6105,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -6161,7 +6123,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -6183,7 +6145,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -6201,7 +6163,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -6219,7 +6181,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -6237,7 +6199,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -6255,7 +6217,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -6275,7 +6237,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -6293,7 +6255,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -6311,7 +6273,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -6329,7 +6291,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -6347,7 +6309,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -6365,7 +6327,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -6385,7 +6347,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -6397,7 +6359,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -6406,30 +6368,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -6448,19 +6410,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
@@ -6476,6 +6432,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6485,7 +6447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899B2BFA-B254-459C-AB3D-CC9B9F48355B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -6498,56 +6460,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="7"/>
@@ -6563,7 +6525,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -6581,13 +6543,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -6599,11 +6561,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -6614,54 +6576,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -6675,8 +6637,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -6697,8 +6659,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -6715,8 +6677,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -6733,8 +6695,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -6751,8 +6713,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -6769,8 +6731,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -6787,8 +6749,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -6807,8 +6769,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -6825,8 +6787,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -6843,8 +6805,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -6867,8 +6829,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -6889,8 +6851,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -6909,8 +6871,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -6927,8 +6889,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -6949,8 +6911,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -6969,8 +6931,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -6989,8 +6951,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -7009,8 +6971,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -7032,15 +6994,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="60" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -7051,8 +7013,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -7071,8 +7033,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -7089,8 +7051,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -7109,8 +7071,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="43"/>
       <c r="C32" s="35" t="s">
         <v>222</v>
@@ -7127,8 +7089,8 @@
       </c>
       <c r="J32" s="107"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51" t="s">
         <v>72</v>
       </c>
@@ -7147,8 +7109,8 @@
       </c>
       <c r="J33" s="109"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="51"/>
       <c r="C34" s="88" t="s">
         <v>224</v>
@@ -7165,14 +7127,14 @@
       </c>
       <c r="J34" s="114"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="237" t="s">
+      <c r="C35" s="239" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="238"/>
-      <c r="E35" s="239"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="241"/>
       <c r="F35" s="111"/>
       <c r="G35" s="154" t="s">
         <v>129</v>
@@ -7183,8 +7145,8 @@
       </c>
       <c r="J35" s="112"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="43" t="s">
         <v>214</v>
       </c>
@@ -7203,8 +7165,8 @@
       </c>
       <c r="J36" s="107"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="43"/>
       <c r="C37" s="35" t="s">
         <v>215</v>
@@ -7221,8 +7183,8 @@
       </c>
       <c r="J37" s="107"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1">
-      <c r="A38" s="221"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A38" s="196"/>
       <c r="B38" s="51" t="s">
         <v>73</v>
       </c>
@@ -7241,8 +7203,8 @@
       </c>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1">
-      <c r="A39" s="221"/>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A39" s="196"/>
       <c r="B39" s="51"/>
       <c r="C39" s="88" t="s">
         <v>218</v>
@@ -7259,14 +7221,14 @@
       </c>
       <c r="J39" s="114"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A40" s="222"/>
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A40" s="197"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="240" t="s">
+      <c r="C40" s="242" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="241"/>
-      <c r="E40" s="242"/>
+      <c r="D40" s="243"/>
+      <c r="E40" s="244"/>
       <c r="F40" s="111"/>
       <c r="G40" s="154" t="s">
         <v>132</v>
@@ -7277,7 +7239,7 @@
       </c>
       <c r="J40" s="112"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A41" s="58" t="s">
         <v>23</v>
       </c>
@@ -7299,7 +7261,7 @@
       </c>
       <c r="J41" s="107"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="51"/>
       <c r="C42" s="24" t="s">
@@ -7317,7 +7279,7 @@
       </c>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A43" s="58"/>
       <c r="B43" s="51"/>
       <c r="C43" s="24" t="s">
@@ -7335,7 +7297,7 @@
       </c>
       <c r="J43" s="115"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="62"/>
       <c r="C44" s="63" t="s">
@@ -7353,7 +7315,7 @@
       </c>
       <c r="J44" s="115"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A45" s="64"/>
       <c r="B45" s="46"/>
       <c r="C45" s="65" t="s">
@@ -7371,7 +7333,7 @@
       </c>
       <c r="J45" s="117"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A46" s="69"/>
       <c r="B46" s="29" t="s">
         <v>90</v>
@@ -7391,7 +7353,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="61" t="s">
@@ -7409,7 +7371,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="61" t="s">
@@ -7427,7 +7389,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="25" t="s">
@@ -7445,7 +7407,7 @@
       </c>
       <c r="J49" s="119"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="29"/>
       <c r="C50" s="71" t="s">
@@ -7463,7 +7425,7 @@
       </c>
       <c r="J50" s="119"/>
     </row>
-    <row r="51" spans="1:10" ht="40" customHeight="1">
+    <row r="51" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A51" s="58"/>
       <c r="B51" s="29"/>
       <c r="C51" s="71" t="s">
@@ -7481,7 +7443,7 @@
       </c>
       <c r="J51" s="126"/>
     </row>
-    <row r="52" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="52" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A52" s="58"/>
       <c r="B52" s="123" t="s">
         <v>88</v>
@@ -7501,7 +7463,7 @@
       </c>
       <c r="J52" s="140"/>
     </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="53" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A53" s="120"/>
       <c r="B53" s="72"/>
       <c r="C53" s="127"/>
@@ -7513,7 +7475,7 @@
       <c r="I53" s="131"/>
       <c r="J53" s="133"/>
     </row>
-    <row r="54" spans="1:10" ht="30.65" customHeight="1">
+    <row r="54" spans="1:10" ht="30.6" customHeight="1">
       <c r="A54" s="73" t="s">
         <v>230</v>
       </c>
@@ -7522,30 +7484,30 @@
       <c r="D54" s="73"/>
       <c r="E54" s="121"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="232" t="s">
+      <c r="G54" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="233"/>
-      <c r="I54" s="232" t="s">
+      <c r="H54" s="191"/>
+      <c r="I54" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="233"/>
-    </row>
-    <row r="55" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J54" s="191"/>
+    </row>
+    <row r="55" spans="1:10" ht="30.6" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
       <c r="D55" s="75"/>
       <c r="E55" s="122"/>
       <c r="F55" s="122"/>
-      <c r="G55" s="234" t="s">
+      <c r="G55" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="235"/>
-      <c r="I55" s="234" t="s">
+      <c r="H55" s="193"/>
+      <c r="I55" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="235"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A56" s="75"/>
@@ -7564,19 +7526,13 @@
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="236" t="s">
+      <c r="I57" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J57" s="236"/>
+      <c r="J57" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="I57:J57"/>
@@ -7592,6 +7548,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7601,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -7614,56 +7576,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="7"/>
@@ -7679,7 +7641,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -7697,13 +7659,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -7715,11 +7677,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -7730,54 +7692,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -7791,8 +7753,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -7813,8 +7775,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -7831,8 +7793,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -7849,8 +7811,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -7867,8 +7829,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -7885,8 +7847,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -7903,8 +7865,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -7923,8 +7885,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -7941,8 +7903,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -7959,8 +7921,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -7983,8 +7945,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -8005,8 +7967,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -8025,8 +7987,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -8043,8 +8005,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -8065,8 +8027,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -8085,8 +8047,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -8105,8 +8067,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -8125,8 +8087,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -8150,15 +8112,15 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="60" customHeight="1" thickTop="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -8171,8 +8133,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -8193,8 +8155,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -8211,8 +8173,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -8231,8 +8193,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="43"/>
       <c r="C32" s="35" t="s">
         <v>222</v>
@@ -8249,8 +8211,8 @@
       </c>
       <c r="J32" s="107"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51" t="s">
         <v>72</v>
       </c>
@@ -8269,8 +8231,8 @@
       </c>
       <c r="J33" s="109"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="51"/>
       <c r="C34" s="88" t="s">
         <v>224</v>
@@ -8287,14 +8249,14 @@
       </c>
       <c r="J34" s="114"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="237" t="s">
+      <c r="C35" s="239" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="238"/>
-      <c r="E35" s="239"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="241"/>
       <c r="F35" s="111"/>
       <c r="G35" s="154" t="s">
         <v>129</v>
@@ -8305,8 +8267,8 @@
       </c>
       <c r="J35" s="112"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="43" t="s">
         <v>56</v>
       </c>
@@ -8325,8 +8287,8 @@
       </c>
       <c r="J36" s="107"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="43"/>
       <c r="C37" s="35" t="s">
         <v>215</v>
@@ -8343,8 +8305,8 @@
       </c>
       <c r="J37" s="107"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1">
-      <c r="A38" s="221"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A38" s="196"/>
       <c r="B38" s="51" t="s">
         <v>73</v>
       </c>
@@ -8363,8 +8325,8 @@
       </c>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1">
-      <c r="A39" s="221"/>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A39" s="196"/>
       <c r="B39" s="51"/>
       <c r="C39" s="88" t="s">
         <v>218</v>
@@ -8381,14 +8343,14 @@
       </c>
       <c r="J39" s="114"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A40" s="222"/>
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A40" s="197"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="240" t="s">
+      <c r="C40" s="242" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="241"/>
-      <c r="E40" s="242"/>
+      <c r="D40" s="243"/>
+      <c r="E40" s="244"/>
       <c r="F40" s="111"/>
       <c r="G40" s="154" t="s">
         <v>132</v>
@@ -8399,7 +8361,7 @@
       </c>
       <c r="J40" s="112"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A41" s="58" t="s">
         <v>23</v>
       </c>
@@ -8421,7 +8383,7 @@
       </c>
       <c r="J41" s="107"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="51"/>
       <c r="C42" s="24" t="s">
@@ -8439,7 +8401,7 @@
       </c>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A43" s="58"/>
       <c r="B43" s="51"/>
       <c r="C43" s="24" t="s">
@@ -8457,7 +8419,7 @@
       </c>
       <c r="J43" s="115"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="62"/>
       <c r="C44" s="63" t="s">
@@ -8475,7 +8437,7 @@
       </c>
       <c r="J44" s="115"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A45" s="64"/>
       <c r="B45" s="46"/>
       <c r="C45" s="65" t="s">
@@ -8493,7 +8455,7 @@
       </c>
       <c r="J45" s="117"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A46" s="69"/>
       <c r="B46" s="29" t="s">
         <v>90</v>
@@ -8513,7 +8475,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="61" t="s">
@@ -8531,7 +8493,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="61" t="s">
@@ -8549,7 +8511,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="25" t="s">
@@ -8567,7 +8529,7 @@
       </c>
       <c r="J49" s="119"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="29"/>
       <c r="C50" s="71" t="s">
@@ -8585,7 +8547,7 @@
       </c>
       <c r="J50" s="119"/>
     </row>
-    <row r="51" spans="1:10" ht="40" customHeight="1">
+    <row r="51" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A51" s="58"/>
       <c r="B51" s="29"/>
       <c r="C51" s="71" t="s">
@@ -8603,7 +8565,7 @@
       </c>
       <c r="J51" s="126"/>
     </row>
-    <row r="52" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="52" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A52" s="58"/>
       <c r="B52" s="123" t="s">
         <v>88</v>
@@ -8623,7 +8585,7 @@
       </c>
       <c r="J52" s="140"/>
     </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="53" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A53" s="120"/>
       <c r="B53" s="72"/>
       <c r="C53" s="127"/>
@@ -8635,7 +8597,7 @@
       <c r="I53" s="131"/>
       <c r="J53" s="133"/>
     </row>
-    <row r="54" spans="1:10" ht="30.65" customHeight="1">
+    <row r="54" spans="1:10" ht="30.6" customHeight="1">
       <c r="A54" s="73" t="s">
         <v>230</v>
       </c>
@@ -8644,30 +8606,30 @@
       <c r="D54" s="73"/>
       <c r="E54" s="121"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="232" t="s">
+      <c r="G54" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="233"/>
-      <c r="I54" s="232" t="s">
+      <c r="H54" s="191"/>
+      <c r="I54" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="233"/>
-    </row>
-    <row r="55" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J54" s="191"/>
+    </row>
+    <row r="55" spans="1:10" ht="30.6" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
       <c r="D55" s="75"/>
       <c r="E55" s="122"/>
       <c r="F55" s="122"/>
-      <c r="G55" s="234" t="s">
+      <c r="G55" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="235"/>
-      <c r="I55" s="234" t="s">
+      <c r="H55" s="193"/>
+      <c r="I55" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="235"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A56" s="75"/>
@@ -8686,19 +8648,13 @@
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="236" t="s">
+      <c r="I57" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J57" s="236"/>
+      <c r="J57" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="I57:J57"/>
@@ -8714,6 +8670,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8723,7 +8685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -8736,56 +8698,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="7"/>
@@ -8801,7 +8763,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -8819,13 +8781,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -8837,11 +8799,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -8852,54 +8814,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -8913,8 +8875,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -8935,8 +8897,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -8953,8 +8915,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -8971,8 +8933,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -8989,8 +8951,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -9007,8 +8969,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -9025,8 +8987,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -9045,8 +9007,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -9063,8 +9025,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -9081,8 +9043,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -9105,8 +9067,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -9127,8 +9089,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -9147,8 +9109,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -9165,8 +9127,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -9187,8 +9149,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -9207,8 +9169,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -9227,8 +9189,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -9247,8 +9209,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -9270,15 +9232,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="60.75" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -9289,8 +9251,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -9309,8 +9271,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -9327,8 +9289,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -9347,8 +9309,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="43"/>
       <c r="C32" s="35" t="s">
         <v>222</v>
@@ -9365,8 +9327,8 @@
       </c>
       <c r="J32" s="107"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51" t="s">
         <v>72</v>
       </c>
@@ -9385,8 +9347,8 @@
       </c>
       <c r="J33" s="109"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="51"/>
       <c r="C34" s="88" t="s">
         <v>119</v>
@@ -9403,14 +9365,14 @@
       </c>
       <c r="J34" s="114"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="226" t="s">
+      <c r="C35" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="203"/>
       <c r="F35" s="111"/>
       <c r="G35" s="154" t="s">
         <v>17</v>
@@ -9421,8 +9383,8 @@
       </c>
       <c r="J35" s="112"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="43" t="s">
         <v>56</v>
       </c>
@@ -9441,8 +9403,8 @@
       </c>
       <c r="J36" s="107"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -9461,8 +9423,8 @@
       </c>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1">
-      <c r="A38" s="221"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A38" s="196"/>
       <c r="B38" s="51"/>
       <c r="C38" s="88" t="s">
         <v>121</v>
@@ -9479,14 +9441,14 @@
       </c>
       <c r="J38" s="114"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A39" s="222"/>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A39" s="197"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="240" t="s">
+      <c r="C39" s="242" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="241"/>
-      <c r="E39" s="242"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="244"/>
       <c r="F39" s="111"/>
       <c r="G39" s="172" t="s">
         <v>17</v>
@@ -9497,7 +9459,7 @@
       </c>
       <c r="J39" s="112"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A40" s="58" t="s">
         <v>23</v>
       </c>
@@ -9519,7 +9481,7 @@
       </c>
       <c r="J40" s="107"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -9537,7 +9499,7 @@
       </c>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="51"/>
       <c r="C42" s="24" t="s">
@@ -9555,7 +9517,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A43" s="58"/>
       <c r="B43" s="62"/>
       <c r="C43" s="63" t="s">
@@ -9573,7 +9535,7 @@
       </c>
       <c r="J43" s="115"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A44" s="64"/>
       <c r="B44" s="46"/>
       <c r="C44" s="65" t="s">
@@ -9591,7 +9553,7 @@
       </c>
       <c r="J44" s="117"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A45" s="69"/>
       <c r="B45" s="29" t="s">
         <v>90</v>
@@ -9611,7 +9573,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -9629,7 +9591,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="61" t="s">
@@ -9647,7 +9609,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="25" t="s">
@@ -9665,7 +9627,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -9683,7 +9645,7 @@
       </c>
       <c r="J49" s="119"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="29"/>
       <c r="C50" s="71" t="s">
@@ -9701,7 +9663,7 @@
       </c>
       <c r="J50" s="126"/>
     </row>
-    <row r="51" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A51" s="58"/>
       <c r="B51" s="123" t="s">
         <v>88</v>
@@ -9721,7 +9683,7 @@
       </c>
       <c r="J51" s="140"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A52" s="120"/>
       <c r="B52" s="72"/>
       <c r="C52" s="127"/>
@@ -9733,7 +9695,7 @@
       <c r="I52" s="131"/>
       <c r="J52" s="133"/>
     </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="73" t="s">
         <v>230</v>
       </c>
@@ -9742,30 +9704,30 @@
       <c r="D53" s="73"/>
       <c r="E53" s="121"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="232" t="s">
+      <c r="G53" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H53" s="233"/>
-      <c r="I53" s="232" t="s">
+      <c r="H53" s="191"/>
+      <c r="I53" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="233"/>
-    </row>
-    <row r="54" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J53" s="191"/>
+    </row>
+    <row r="54" spans="1:10" ht="30.6" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
       <c r="D54" s="75"/>
       <c r="E54" s="122"/>
       <c r="F54" s="122"/>
-      <c r="G54" s="234" t="s">
+      <c r="G54" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="235"/>
-      <c r="I54" s="234" t="s">
+      <c r="H54" s="193"/>
+      <c r="I54" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="235"/>
+      <c r="J54" s="193"/>
     </row>
     <row r="55" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A55" s="75"/>
@@ -9784,19 +9746,13 @@
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="236" t="s">
+      <c r="I56" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J56" s="236"/>
+      <c r="J56" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I56:J56"/>
@@ -9812,6 +9768,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -9821,7 +9783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -9835,55 +9797,55 @@
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="7"/>
@@ -9899,7 +9861,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -9917,13 +9879,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -9935,11 +9897,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -9950,54 +9912,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -10011,8 +9973,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -10033,8 +9995,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -10051,8 +10013,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -10069,8 +10031,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -10087,8 +10049,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -10105,8 +10067,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -10123,8 +10085,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -10143,8 +10105,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -10161,8 +10123,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -10179,8 +10141,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -10203,8 +10165,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -10225,8 +10187,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -10245,8 +10207,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -10263,8 +10225,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -10285,8 +10247,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -10305,8 +10267,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -10325,8 +10287,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -10345,8 +10307,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -10368,15 +10330,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="60.75" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -10387,8 +10349,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -10407,8 +10369,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -10425,8 +10387,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -10445,8 +10407,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -10465,8 +10427,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -10483,14 +10445,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>159</v>
@@ -10501,8 +10463,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -10521,8 +10483,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -10541,8 +10503,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -10559,14 +10521,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -10577,7 +10539,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -10599,7 +10561,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -10617,7 +10579,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -10635,7 +10597,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -10653,7 +10615,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -10671,7 +10633,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -10691,7 +10653,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -10709,7 +10671,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -10727,7 +10689,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -10745,7 +10707,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -10763,7 +10725,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -10781,7 +10743,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -10801,7 +10763,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -10813,7 +10775,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -10822,30 +10784,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -10864,19 +10826,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
@@ -10892,6 +10848,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -10901,7 +10863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -10914,56 +10876,55 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="32.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="7"/>
@@ -10979,7 +10940,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -10997,13 +10958,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -11015,11 +10976,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -11030,54 +10991,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -11091,8 +11052,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -11113,8 +11074,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -11131,8 +11092,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -11149,8 +11110,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -11167,8 +11128,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -11185,8 +11146,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -11203,8 +11164,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -11223,8 +11184,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -11241,8 +11202,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -11259,8 +11220,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -11283,8 +11244,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -11305,8 +11266,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -11325,8 +11286,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -11343,8 +11304,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -11365,8 +11326,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -11385,8 +11346,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -11405,8 +11366,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -11425,8 +11386,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -11448,15 +11409,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="60" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -11467,8 +11428,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -11487,8 +11448,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -11505,8 +11466,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -11525,8 +11486,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -11545,8 +11506,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -11563,14 +11524,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>159</v>
@@ -11581,8 +11542,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -11601,8 +11562,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -11621,8 +11582,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -11639,14 +11600,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -11657,7 +11618,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -11679,7 +11640,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -11697,7 +11658,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -11715,7 +11676,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -11733,7 +11694,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -11751,7 +11712,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -11771,7 +11732,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -11789,7 +11750,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -11807,7 +11768,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -11825,7 +11786,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -11843,7 +11804,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -11861,7 +11822,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -11881,7 +11842,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -11893,7 +11854,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -11902,30 +11863,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -11944,19 +11905,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
@@ -11972,6 +11927,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -11981,7 +11942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -11994,56 +11955,56 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="237" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="7"/>
@@ -12059,7 +12020,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="244"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -12077,13 +12038,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -12095,11 +12056,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -12110,54 +12071,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -12171,8 +12132,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -12193,8 +12154,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -12211,8 +12172,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -12229,8 +12190,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -12247,8 +12208,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -12265,8 +12226,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -12283,8 +12244,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -12303,8 +12264,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -12321,8 +12282,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -12339,8 +12300,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -12363,8 +12324,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -12385,8 +12346,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -12405,8 +12366,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -12423,8 +12384,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -12445,8 +12406,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -12465,8 +12426,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -12485,8 +12446,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -12505,8 +12466,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -12528,15 +12489,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="57" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -12547,8 +12508,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -12567,8 +12528,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -12585,8 +12546,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -12605,8 +12566,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -12625,8 +12586,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -12643,14 +12604,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="str">
         <f>G29</f>
@@ -12662,8 +12623,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -12682,8 +12643,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -12702,8 +12663,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -12720,14 +12681,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -12738,7 +12699,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -12760,7 +12721,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -12778,7 +12739,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -12796,7 +12757,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -12814,7 +12775,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -12832,7 +12793,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -12852,7 +12813,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -12870,7 +12831,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -12888,7 +12849,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -12906,7 +12867,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -12924,7 +12885,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -12942,7 +12903,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -12962,7 +12923,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -12974,7 +12935,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -12983,30 +12944,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -13025,19 +12986,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
@@ -13053,6 +13008,12 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -13062,7 +13023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -13075,50 +13036,50 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -13160,13 +13121,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -13178,11 +13139,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -13193,54 +13154,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -13254,8 +13215,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -13276,8 +13237,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -13294,8 +13255,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -13312,8 +13273,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -13330,8 +13291,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -13348,8 +13309,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -13366,8 +13327,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -13386,8 +13347,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -13404,8 +13365,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -13422,8 +13383,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -13446,8 +13407,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -13468,8 +13429,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -13488,8 +13449,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -13506,8 +13467,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -13528,8 +13489,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -13548,8 +13509,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -13568,8 +13529,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -13588,8 +13549,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -13611,15 +13572,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="59.25" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -13630,8 +13591,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -13646,8 +13607,8 @@
       <c r="I29" s="153"/>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -13660,8 +13621,8 @@
       <c r="I30" s="154"/>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -13680,8 +13641,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -13700,8 +13661,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -13718,14 +13679,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>17</v>
@@ -13736,8 +13697,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -13756,8 +13717,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -13776,8 +13737,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -13794,14 +13755,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -13812,7 +13773,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -13834,7 +13795,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -13852,7 +13813,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -13870,7 +13831,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -13888,7 +13849,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -13906,7 +13867,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -13926,7 +13887,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -13944,7 +13905,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -13962,7 +13923,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -13980,7 +13941,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -13998,7 +13959,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -14016,7 +13977,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -14036,7 +13997,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -14048,7 +14009,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>230</v>
       </c>
@@ -14057,30 +14018,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -14099,18 +14060,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:F6"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
@@ -14126,6 +14082,11 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:F6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14135,63 +14096,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8651617C-7165-4CBB-89EB-2E0B16B6936F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="221"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -14231,13 +14192,13 @@
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -14249,11 +14210,11 @@
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="17" t="s">
         <v>9</v>
       </c>
@@ -14264,54 +14225,54 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="196" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="215" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="217" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="193"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="199"/>
+      <c r="H8" s="216"/>
       <c r="I8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="201"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="187" t="s">
         <v>15</v>
       </c>
@@ -14325,8 +14286,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1">
-      <c r="A10" s="220" t="s">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="195" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -14347,8 +14308,8 @@
       </c>
       <c r="J10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1">
-      <c r="A11" s="221"/>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="196"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
         <v>32</v>
@@ -14365,8 +14326,8 @@
       </c>
       <c r="J11" s="93"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="196"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
@@ -14383,8 +14344,8 @@
       </c>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="196"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
         <v>35</v>
@@ -14401,8 +14362,8 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="196"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>199</v>
@@ -14419,8 +14380,8 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A15" s="196"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
@@ -14437,8 +14398,8 @@
       </c>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A16" s="221"/>
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A16" s="196"/>
       <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
@@ -14457,8 +14418,8 @@
       </c>
       <c r="J16" s="99"/>
     </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1">
-      <c r="A17" s="221"/>
+    <row r="17" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="196"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
         <v>39</v>
@@ -14475,8 +14436,8 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A18" s="197"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
         <v>40</v>
@@ -14493,8 +14454,8 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A19" s="196" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -14517,8 +14478,8 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1">
-      <c r="A20" s="221"/>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A20" s="196"/>
       <c r="B20" s="29"/>
       <c r="C20" s="101" t="s">
         <v>42</v>
@@ -14539,8 +14500,8 @@
       <c r="L20" s="102"/>
       <c r="N20" s="103"/>
     </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1">
-      <c r="A21" s="221"/>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="196"/>
       <c r="B21" s="29"/>
       <c r="C21" s="101" t="s">
         <v>43</v>
@@ -14559,8 +14520,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A22" s="221"/>
+    <row r="22" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A22" s="196"/>
       <c r="B22" s="33"/>
       <c r="C22" s="104" t="s">
         <v>44</v>
@@ -14577,8 +14538,8 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A23" s="221"/>
+    <row r="23" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A23" s="196"/>
       <c r="B23" s="29" t="s">
         <v>46</v>
       </c>
@@ -14599,8 +14560,8 @@
       </c>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1">
-      <c r="A24" s="221"/>
+    <row r="24" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A24" s="196"/>
       <c r="B24" s="29"/>
       <c r="C24" s="101" t="s">
         <v>30</v>
@@ -14619,8 +14580,8 @@
       </c>
       <c r="J24" s="109"/>
     </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A25" s="221"/>
+    <row r="25" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A25" s="196"/>
       <c r="B25" s="33"/>
       <c r="C25" s="104" t="s">
         <v>31</v>
@@ -14639,8 +14600,8 @@
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A26" s="196"/>
       <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
@@ -14659,8 +14620,8 @@
       </c>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1">
-      <c r="A27" s="221"/>
+    <row r="27" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="196"/>
       <c r="B27" s="43" t="s">
         <v>48</v>
       </c>
@@ -14680,15 +14641,15 @@
       <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:14" ht="63" customHeight="1">
-      <c r="A28" s="221"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="225"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="108"/>
       <c r="G28" s="153">
         <v>148</v>
@@ -14699,8 +14660,8 @@
       </c>
       <c r="J28" s="109"/>
     </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1">
-      <c r="A29" s="221"/>
+    <row r="29" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="196"/>
       <c r="B29" s="29" t="s">
         <v>52</v>
       </c>
@@ -14719,8 +14680,8 @@
       </c>
       <c r="J29" s="109"/>
     </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" thickBot="1">
-      <c r="A30" s="221"/>
+    <row r="30" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A30" s="196"/>
       <c r="B30" s="46"/>
       <c r="C30" s="34" t="s">
         <v>54</v>
@@ -14737,8 +14698,8 @@
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" thickTop="1">
-      <c r="A31" s="221"/>
+    <row r="31" spans="1:14" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A31" s="196"/>
       <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
@@ -14757,8 +14718,8 @@
       </c>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1">
-      <c r="A32" s="221"/>
+    <row r="32" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A32" s="196"/>
       <c r="B32" s="51" t="s">
         <v>72</v>
       </c>
@@ -14777,8 +14738,8 @@
       </c>
       <c r="J32" s="109"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1">
-      <c r="A33" s="221"/>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="88" t="s">
         <v>119</v>
@@ -14795,14 +14756,14 @@
       </c>
       <c r="J33" s="114"/>
     </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A34" s="196"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="111"/>
       <c r="G34" s="154" t="s">
         <v>17</v>
@@ -14813,8 +14774,8 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" thickTop="1">
-      <c r="A35" s="221"/>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
+      <c r="A35" s="196"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -14833,8 +14794,8 @@
       </c>
       <c r="J35" s="107"/>
     </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1">
-      <c r="A36" s="221"/>
+    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A36" s="196"/>
       <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
@@ -14853,8 +14814,8 @@
       </c>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A37" s="196"/>
       <c r="B37" s="51"/>
       <c r="C37" s="88" t="s">
         <v>121</v>
@@ -14871,14 +14832,14 @@
       </c>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="A38" s="197"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="111"/>
       <c r="G38" s="154" t="s">
         <v>17</v>
@@ -14889,7 +14850,7 @@
       </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A39" s="58" t="s">
         <v>23</v>
       </c>
@@ -14911,7 +14872,7 @@
       </c>
       <c r="J39" s="107"/>
     </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1">
+    <row r="40" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
@@ -14929,7 +14890,7 @@
       </c>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1">
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
@@ -14947,7 +14908,7 @@
       </c>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1">
+    <row r="42" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="63" t="s">
@@ -14965,7 +14926,7 @@
       </c>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="46"/>
       <c r="C43" s="65" t="s">
@@ -14983,7 +14944,7 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" thickTop="1">
+    <row r="44" spans="1:10" ht="40.049999999999997" customHeight="1" thickTop="1">
       <c r="A44" s="69"/>
       <c r="B44" s="29" t="s">
         <v>90</v>
@@ -15003,7 +14964,7 @@
       </c>
       <c r="J44" s="119"/>
     </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1">
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="29"/>
       <c r="C45" s="61" t="s">
@@ -15021,7 +14982,7 @@
       </c>
       <c r="J45" s="119"/>
     </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1">
+    <row r="46" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="29"/>
       <c r="C46" s="61" t="s">
@@ -15039,7 +15000,7 @@
       </c>
       <c r="J46" s="119"/>
     </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1">
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A47" s="58"/>
       <c r="B47" s="29"/>
       <c r="C47" s="25" t="s">
@@ -15057,7 +15018,7 @@
       </c>
       <c r="J47" s="119"/>
     </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1">
+    <row r="48" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A48" s="58"/>
       <c r="B48" s="29"/>
       <c r="C48" s="71" t="s">
@@ -15075,7 +15036,7 @@
       </c>
       <c r="J48" s="119"/>
     </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1">
+    <row r="49" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="29"/>
       <c r="C49" s="71" t="s">
@@ -15093,7 +15054,7 @@
       </c>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="50" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
       <c r="B50" s="123" t="s">
         <v>88</v>
@@ -15113,7 +15074,7 @@
       </c>
       <c r="J50" s="140"/>
     </row>
-    <row r="51" spans="1:10" ht="30.65" customHeight="1" thickBot="1">
+    <row r="51" spans="1:10" ht="30.6" customHeight="1" thickBot="1">
       <c r="A51" s="120"/>
       <c r="B51" s="72"/>
       <c r="C51" s="127"/>
@@ -15125,7 +15086,7 @@
       <c r="I51" s="131"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10" ht="30.65" customHeight="1">
+    <row r="52" spans="1:10" ht="30.6" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>212</v>
       </c>
@@ -15134,30 +15095,30 @@
       <c r="D52" s="73"/>
       <c r="E52" s="121"/>
       <c r="F52" s="122"/>
-      <c r="G52" s="232" t="s">
+      <c r="G52" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="191"/>
+      <c r="I52" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.65" customHeight="1">
+      <c r="J52" s="191"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.6" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
       <c r="E53" s="122"/>
       <c r="F53" s="122"/>
-      <c r="G53" s="234" t="s">
+      <c r="G53" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="235"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="193"/>
+      <c r="I53" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="235"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A54" s="75"/>
@@ -15176,24 +15137,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="236" t="s">
+      <c r="I55" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="236"/>
+      <c r="J55" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
@@ -15204,6 +15154,17 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
